--- a/Kortright_ALLCHEMSUMM.xlsx
+++ b/Kortright_ALLCHEMSUMM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF7069E-B59B-4CA1-A850-138CBAF90462}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC271483-58E7-4568-A273-FC88A526982F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OPECHEMSUMM" sheetId="1" r:id="rId1"/>
+    <sheet name="CHEMSUMM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,11 +33,22 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={C0E29FC9-9B12-4B82-AE34-1BE392E1B287}</author>
-    <author>tc={42A9FDE1-2B0A-46E0-BFA5-A419FF892A8E}</author>
+    <author>tc={398474E0-FBD6-463A-9785-CE396103067D}</author>
+    <author>tc={F6221951-BCAE-4089-AD58-D4EE39096D13}</author>
+    <author>tc={100B8E5A-6FAE-4951-B4D0-372BCD353B7D}</author>
   </authors>
   <commentList>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{C0E29FC9-9B12-4B82-AE34-1BE392E1B287}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{398474E0-FBD6-463A-9785-CE396103067D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Paraiba, L. C., Bru, R. and Carrasco, J. M.: Level IV Fugacity model depending on temperature by a periodic control system, Ecol. Modell., 147(3), 221–232, doi:10.1016/S0304-3800(01)00421-5, 2002.
+Reply:
+    water viscosity = 1.0791, using Mcgowan's molar volume</t>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="1" shapeId="0" xr:uid="{F6221951-BCAE-4089-AD58-D4EE39096D13}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -45,7 +56,7 @@
     Zhao, Y. H., Abraham, M. H. and Zissimos, A. M.: Determination of McGowan Volumes for Ions and Correlation with van der Waals Volumes, J. Chem. Inf. Comput. Sci., 43(6), 1848–1854, doi:10.1021/ci0341114, 2003.</t>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{42A9FDE1-2B0A-46E0-BFA5-A419FF892A8E}">
+    <comment ref="K3" authorId="2" shapeId="0" xr:uid="{100B8E5A-6FAE-4951-B4D0-372BCD353B7D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Compound</t>
   </si>
@@ -178,6 +189,18 @@
   </si>
   <si>
     <t>EHDPP</t>
+  </si>
+  <si>
+    <t>LogKaw</t>
+  </si>
+  <si>
+    <t>LogKocW</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>95-14-7</t>
   </si>
 </sst>
 </file>
@@ -187,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,12 +356,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -683,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -692,6 +709,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1055,10 +1074,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AA2" dT="2020-11-09T15:47:52.19" personId="{3921DA96-6704-4CCA-927E-27B8617908FF}" id="{C0E29FC9-9B12-4B82-AE34-1BE392E1B287}">
+  <threadedComment ref="C1" dT="2020-11-09T15:48:14.35" personId="{3921DA96-6704-4CCA-927E-27B8617908FF}" id="{398474E0-FBD6-463A-9785-CE396103067D}">
+    <text>Paraiba, L. C., Bru, R. and Carrasco, J. M.: Level IV Fugacity model depending on temperature by a periodic control system, Ecol. Modell., 147(3), 221–232, doi:10.1016/S0304-3800(01)00421-5, 2002.</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2020-11-09T15:57:14.30" personId="{3921DA96-6704-4CCA-927E-27B8617908FF}" id="{C9E2254A-BBB3-47F2-AEE7-689F572EE507}" parentId="{398474E0-FBD6-463A-9785-CE396103067D}">
+    <text>water viscosity = 1.0791, using Mcgowan's molar volume</text>
+  </threadedComment>
+  <threadedComment ref="AA2" dT="2020-11-09T15:47:52.19" personId="{3921DA96-6704-4CCA-927E-27B8617908FF}" id="{F6221951-BCAE-4089-AD58-D4EE39096D13}">
     <text>Zhao, Y. H., Abraham, M. H. and Zissimos, A. M.: Determination of McGowan Volumes for Ions and Correlation with van der Waals Volumes, J. Chem. Inf. Comput. Sci., 43(6), 1848–1854, doi:10.1021/ci0341114, 2003.</text>
   </threadedComment>
-  <threadedComment ref="K3" dT="2019-11-26T16:47:38.43" personId="{DF82C9C9-12F3-4819-A505-F3623F06D87A}" id="{42A9FDE1-2B0A-46E0-BFA5-A419FF892A8E}">
+  <threadedComment ref="K3" dT="2019-11-26T16:47:38.43" personId="{DF82C9C9-12F3-4819-A505-F3623F06D87A}" id="{100B8E5A-6FAE-4951-B4D0-372BCD353B7D}">
     <text>=Log(71) from Rhodes-Dicker</text>
   </threadedComment>
 </ThreadedComments>
@@ -1067,10 +1092,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,9 +1113,10 @@
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="50" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1118,58 +1145,67 @@
         <v>29</v>
       </c>
       <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1177,6 +1213,7 @@
         <v>79.903999999999996</v>
       </c>
       <c r="C2" s="2">
+        <f>(0.000000074*(2.6*B2)^0.5*(273.15+17)/(1.0791*(AA2*100)^0.6))*(3600/100^2)</f>
         <v>1.3241059797519805E-5</v>
       </c>
       <c r="D2" s="2">
@@ -1245,11 +1282,16 @@
         <v>0</v>
       </c>
       <c r="AA2" s="1">
+        <f>30.66/100</f>
         <v>0.30659999999999998</v>
       </c>
       <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="6"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1258,7 +1300,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C4" si="0">(0.000000074*(2.6*B3)^0.5*(273.15+17)/(1.0791*(AA3*100)^0.6))*(3600/100^2)</f>
-        <v>3.9141038199750839E-6</v>
+        <v>8.6819708262146042E-6</v>
       </c>
       <c r="D3" s="5">
         <v>1.2887999999999998E-2</v>
@@ -1277,7 +1319,7 @@
         <v>1.2300000000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>-2.1145100000000006</v>
+        <v>-7.1020259999999986</v>
       </c>
       <c r="K3" s="1">
         <f>LOG(71)</f>
@@ -1315,25 +1357,32 @@
         <v>2.616143551903963E-10</v>
       </c>
       <c r="W3" s="1">
-        <v>5.0449999999999999</v>
+        <v>5.6689999999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>0.87</v>
+        <v>1.46</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="Z3" s="1">
-        <v>0.18</v>
+        <v>0.48</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.2603</v>
+        <v>0.86419999999999997</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1420,8 +1469,12 @@
       <c r="AC4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1450,15 +1503,16 @@
         <v>1.5629056996641399</v>
       </c>
       <c r="J5" s="1">
+        <v>-6.2877127546218397</v>
+      </c>
+      <c r="K5" s="1">
+        <f>LOG(10^I5*0.41)</f>
+        <v>1.1756895563838756</v>
+      </c>
+      <c r="L5" s="1">
         <v>999</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1">
         <v>0</v>
       </c>
@@ -1466,40 +1520,50 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1.7543859649122809E-13</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>2.02E-4</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>2.616143551903963E-10</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>2.616143551903963E-10</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
         <v>7.18</v>
       </c>
-      <c r="V5" s="1">
+      <c r="X5" s="1">
         <v>2.09</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
         <v>0.03</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Z5" s="1">
         <v>0.98</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AA5" s="1">
         <v>1.7605999999999999</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1528,15 +1592,16 @@
         <v>2.5154776628758202</v>
       </c>
       <c r="J6" s="1">
+        <v>-6.0035631249827199</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6:K8" si="1">LOG(10^I6*0.41)</f>
+        <v>2.1282615195955561</v>
+      </c>
+      <c r="L6" s="1">
         <v>999</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1">
         <v>0</v>
       </c>
@@ -1544,40 +1609,50 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>2.4085365853658537E-13</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>9.6904040697928296E-4</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>2.616143551903963E-10</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>2.616143551903963E-10</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
         <v>8.7040000000000006</v>
       </c>
-      <c r="V6" s="1">
+      <c r="X6" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <v>1.32</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <v>2.1833</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1606,15 +1681,16 @@
         <v>5.08948304776355</v>
       </c>
       <c r="J7" s="1">
+        <v>-5.0352096385645098</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7022669044832863</v>
+      </c>
+      <c r="L7" s="1">
         <v>999</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
+      <c r="M7" s="1"/>
       <c r="N7" s="1">
         <v>0</v>
       </c>
@@ -1622,40 +1698,50 @@
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1.803680981595092E-12</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>2.0299999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>2.616143551903963E-10</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>2.616143551903963E-10</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
         <v>11.259</v>
       </c>
-      <c r="V7" s="1">
+      <c r="X7" s="1">
         <v>1.66</v>
       </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AA7" s="1">
         <v>2.3714</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1682,15 +1768,16 @@
         <v>5.7949632675087601</v>
       </c>
       <c r="J8" s="1">
+        <v>-4.8752904527172101</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4077471242284956</v>
+      </c>
+      <c r="L8" s="1">
         <v>999</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
+      <c r="M8" s="1"/>
       <c r="N8" s="1">
         <v>0</v>
       </c>
@@ -1698,76 +1785,87 @@
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1.9060773480662983E-14</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>2.616143551903963E-10</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>2.616143551903963E-10</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
         <v>12.83</v>
       </c>
-      <c r="V8" s="1">
+      <c r="X8" s="1">
         <v>1.62</v>
       </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
         <v>1.44</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AA8" s="1">
         <v>2.8908</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="3"/>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kortright_ALLCHEMSUMM.xlsx
+++ b/Kortright_ALLCHEMSUMM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC271483-58E7-4568-A273-FC88A526982F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CACD6-F97D-4E24-82CE-45BE488117DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEMSUMM" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Compound</t>
   </si>
@@ -201,6 +202,18 @@
   </si>
   <si>
     <t>95-14-7</t>
+  </si>
+  <si>
+    <t>ppLFER Koc</t>
+  </si>
+  <si>
+    <t>Kow</t>
+  </si>
+  <si>
+    <t>Kow-Koc</t>
+  </si>
+  <si>
+    <t>EPI (MCI Method)</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1108,8 @@
   <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI10" sqref="AI10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,8 +1519,7 @@
         <v>-6.2877127546218397</v>
       </c>
       <c r="K5" s="1">
-        <f>LOG(10^I5*0.41)</f>
-        <v>1.1756895563838756</v>
+        <v>2.6</v>
       </c>
       <c r="L5" s="1">
         <v>999</v>
@@ -1595,8 +1607,7 @@
         <v>-6.0035631249827199</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:K8" si="1">LOG(10^I6*0.41)</f>
-        <v>2.1282615195955561</v>
+        <v>3.2050000000000001</v>
       </c>
       <c r="L6" s="1">
         <v>999</v>
@@ -1684,8 +1695,7 @@
         <v>-5.0352096385645098</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
-        <v>4.7022669044832863</v>
+        <v>4.0309999999999997</v>
       </c>
       <c r="L7" s="1">
         <v>999</v>
@@ -1771,8 +1781,7 @@
         <v>-4.8752904527172101</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
-        <v>5.4077471242284956</v>
+        <v>4.5069999999999997</v>
       </c>
       <c r="L8" s="1">
         <v>999</v>
@@ -1843,7 +1852,6 @@
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="I15" s="3"/>
@@ -1871,4 +1879,129 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A701D3-820E-40AA-B588-0D30F950D238}">
+  <dimension ref="F7:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0.54</v>
+      </c>
+      <c r="H7">
+        <v>-0.98</v>
+      </c>
+      <c r="I7">
+        <v>-0.42</v>
+      </c>
+      <c r="J7">
+        <v>-3.34</v>
+      </c>
+      <c r="K7">
+        <v>1.2</v>
+      </c>
+      <c r="L7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.5629056996641399</v>
+      </c>
+      <c r="H10">
+        <f>($G$7*CHEMSUMM!W5+$H$7*CHEMSUMM!X5+$I$7*CHEMSUMM!Y5+$J$7*CHEMSUMM!Z5+$K$7*CHEMSUMM!AA5+$L$7)</f>
+        <v>0.67592000000000052</v>
+      </c>
+      <c r="I10" s="1">
+        <f>LOG(10^G10*0.41)</f>
+        <v>1.1756895563838756</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.5154776628758202</v>
+      </c>
+      <c r="H11">
+        <f>($G$7*CHEMSUMM!W6+$H$7*CHEMSUMM!X6+$I$7*CHEMSUMM!Y6+$J$7*CHEMSUMM!Z6+$K$7*CHEMSUMM!AA6+$L$7)</f>
+        <v>1.8631199999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <f>LOG(10^G11*0.41)</f>
+        <v>2.1282615195955561</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.2050000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.08948304776355</v>
+      </c>
+      <c r="H12">
+        <f>($G$7*CHEMSUMM!W7+$H$7*CHEMSUMM!X7+$I$7*CHEMSUMM!Y7+$J$7*CHEMSUMM!Z7+$K$7*CHEMSUMM!AA7+$L$7)</f>
+        <v>3.6447400000000005</v>
+      </c>
+      <c r="I12" s="1">
+        <f>LOG(10^G12*0.41)</f>
+        <v>4.7022669044832863</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.0309999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5.7949632675087601</v>
+      </c>
+      <c r="H13">
+        <f>($G$7*CHEMSUMM!W8+$H$7*CHEMSUMM!X8+$I$7*CHEMSUMM!Y8+$J$7*CHEMSUMM!Z8+$K$7*CHEMSUMM!AA8+$L$7)</f>
+        <v>4.0199600000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <f>LOG(10^G13*0.41)</f>
+        <v>5.4077471242284956</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4.5069999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Kortright_ALLCHEMSUMM.xlsx
+++ b/Kortright_ALLCHEMSUMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CACD6-F97D-4E24-82CE-45BE488117DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A8975B-A9EC-4806-B3ED-1E05A99698CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,7 +713,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -724,6 +724,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1108,8 +1109,8 @@
   <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I17" sqref="I17"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1126,7 @@
     <col min="10" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="50" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" customWidth="1"/>
     <col min="36" max="36" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1321,10 +1322,10 @@
       <c r="E3" s="2">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="8">
         <v>360</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="8">
         <v>720</v>
       </c>
       <c r="H3" s="1"/>
@@ -1412,10 +1413,10 @@
       <c r="E4" s="2">
         <v>4.9712889999999998E-10</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="8">
         <v>1440</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="8">
         <v>2880</v>
       </c>
       <c r="H4" s="1"/>
@@ -1503,10 +1504,10 @@
       <c r="E5" s="2">
         <v>2.19884E-11</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>2904</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
         <v>1464</v>
       </c>
       <c r="H5" s="1">
@@ -1591,10 +1592,10 @@
       <c r="E6" s="2">
         <v>4.4763100000000002E-11</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
         <v>5100</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="8">
         <v>1464</v>
       </c>
       <c r="H6" s="1">
@@ -1679,10 +1680,10 @@
       <c r="E7" s="2">
         <v>1.08423E-11</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="8">
         <v>678</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="8">
         <v>10</v>
       </c>
       <c r="H7" s="1">
@@ -1767,10 +1768,10 @@
       <c r="E8" s="2">
         <v>3.9847400000000002E-11</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="8">
         <v>780</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="8">
         <v>1488</v>
       </c>
       <c r="H8" s="1"/>
@@ -1852,27 +1853,62 @@
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="I15" s="3"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I21" s="3"/>
     </row>
   </sheetData>

--- a/Kortright_ALLCHEMSUMM.xlsx
+++ b/Kortright_ALLCHEMSUMM.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A8975B-A9EC-4806-B3ED-1E05A99698CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA48D8-3139-4451-89B9-7722BB33BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22944" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEMSUMM" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Compound</t>
   </si>
@@ -202,18 +201,6 @@
   </si>
   <si>
     <t>95-14-7</t>
-  </si>
-  <si>
-    <t>ppLFER Koc</t>
-  </si>
-  <si>
-    <t>Kow</t>
-  </si>
-  <si>
-    <t>Kow-Koc</t>
-  </si>
-  <si>
-    <t>EPI (MCI Method)</t>
   </si>
 </sst>
 </file>
@@ -1109,13 +1096,14 @@
   <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T12" sqref="T12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1242,7 +1230,10 @@
       <c r="G2" s="2">
         <v>1000000000</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="2">
+        <f>0.1*F2</f>
+        <v>100000000</v>
+      </c>
       <c r="I2" s="1">
         <v>-999</v>
       </c>
@@ -1328,7 +1319,10 @@
       <c r="G3" s="8">
         <v>720</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <f>0.1*F3</f>
+        <v>36</v>
+      </c>
       <c r="I3" s="1">
         <v>1.2300000000000002</v>
       </c>
@@ -1419,7 +1413,10 @@
       <c r="G4" s="8">
         <v>2880</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <f>0.1*F4</f>
+        <v>144</v>
+      </c>
       <c r="I4" s="1">
         <v>-1.33</v>
       </c>
@@ -1774,7 +1771,10 @@
       <c r="G8" s="8">
         <v>1488</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <f>0.1*F8</f>
+        <v>78</v>
+      </c>
       <c r="I8" s="1">
         <v>5.7949632675087601</v>
       </c>
@@ -1839,6 +1839,7 @@
       <c r="AJ8" s="7"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
@@ -1847,12 +1848,7 @@
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="I13" s="3"/>
-    </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -1860,7 +1856,6 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="I15" s="3"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -1868,8 +1863,6 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -1877,7 +1870,6 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I17" s="3"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -1885,7 +1877,6 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I18" s="3"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -1893,7 +1884,6 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I19" s="3"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -1901,7 +1891,6 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I20" s="3"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -1915,129 +1904,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A701D3-820E-40AA-B588-0D30F950D238}">
-  <dimension ref="F7:L13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="G7">
-        <v>0.54</v>
-      </c>
-      <c r="H7">
-        <v>-0.98</v>
-      </c>
-      <c r="I7">
-        <v>-0.42</v>
-      </c>
-      <c r="J7">
-        <v>-3.34</v>
-      </c>
-      <c r="K7">
-        <v>1.2</v>
-      </c>
-      <c r="L7">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.5629056996641399</v>
-      </c>
-      <c r="H10">
-        <f>($G$7*CHEMSUMM!W5+$H$7*CHEMSUMM!X5+$I$7*CHEMSUMM!Y5+$J$7*CHEMSUMM!Z5+$K$7*CHEMSUMM!AA5+$L$7)</f>
-        <v>0.67592000000000052</v>
-      </c>
-      <c r="I10" s="1">
-        <f>LOG(10^G10*0.41)</f>
-        <v>1.1756895563838756</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2.5154776628758202</v>
-      </c>
-      <c r="H11">
-        <f>($G$7*CHEMSUMM!W6+$H$7*CHEMSUMM!X6+$I$7*CHEMSUMM!Y6+$J$7*CHEMSUMM!Z6+$K$7*CHEMSUMM!AA6+$L$7)</f>
-        <v>1.8631199999999999</v>
-      </c>
-      <c r="I11" s="1">
-        <f>LOG(10^G11*0.41)</f>
-        <v>2.1282615195955561</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3.2050000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5.08948304776355</v>
-      </c>
-      <c r="H12">
-        <f>($G$7*CHEMSUMM!W7+$H$7*CHEMSUMM!X7+$I$7*CHEMSUMM!Y7+$J$7*CHEMSUMM!Z7+$K$7*CHEMSUMM!AA7+$L$7)</f>
-        <v>3.6447400000000005</v>
-      </c>
-      <c r="I12" s="1">
-        <f>LOG(10^G12*0.41)</f>
-        <v>4.7022669044832863</v>
-      </c>
-      <c r="J12" s="1">
-        <v>4.0309999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5.7949632675087601</v>
-      </c>
-      <c r="H13">
-        <f>($G$7*CHEMSUMM!W8+$H$7*CHEMSUMM!X8+$I$7*CHEMSUMM!Y8+$J$7*CHEMSUMM!Z8+$K$7*CHEMSUMM!AA8+$L$7)</f>
-        <v>4.0199600000000002</v>
-      </c>
-      <c r="I13" s="1">
-        <f>LOG(10^G13*0.41)</f>
-        <v>5.4077471242284956</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4.5069999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>